--- a/regions/4/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/4/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,17 +88,17 @@
     <t>*წინასწარი მონაცემები.</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,15 +115,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -142,21 +137,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="9"/>
       <color indexed="8"/>
@@ -207,6 +187,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,61 +230,53 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -607,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -618,492 +597,433 @@
     <col min="1" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="15" t="s">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2009</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>31606.484800000006</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>29135.121799999997</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>16746.551000000003</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>21898.248300000003</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="9">
         <v>99386.405900000012</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>2010</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>26402.707999999999</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>6909.6137088000005</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <v>15086.539199999997</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>10536.612100000002</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>58935.473008799992</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2011</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>17556.567900000005</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>30239.653700000003</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>26976.595599999997</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>21076.820099999997</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="9">
         <v>95849.637300000017</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>2012</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="8">
         <v>32981.502223700008</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="8">
         <v>7941.1235062749965</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="8">
         <v>16632.300865300003</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>14660.625221299999</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>72215.551816574996</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>2013</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <v>7218.7312999999976</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>7605.3180000000029</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>49578.280800000022</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>18735.207199999993</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>83137.537299999982</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>2014</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="8">
         <v>12714.2364</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>36657.176900000013</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="8">
         <v>61640.59840000001</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>58063.859900000025</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="9">
         <v>169075.87160000007</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>2015</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="8">
         <v>53442.643099999994</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <v>16462.218399999994</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>22058.824799999999</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>115885.38149999999</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <v>207849.06780000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>2016</v>
       </c>
-      <c r="B12" s="13">
-        <v>53748.063199999982</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10794.7844</v>
-      </c>
-      <c r="D12" s="13">
-        <v>20476.454500000007</v>
-      </c>
-      <c r="E12" s="13">
-        <v>23500.702400000027</v>
-      </c>
-      <c r="F12" s="14">
-        <v>108520.00450000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="B12" s="8">
+        <v>53748.063400000028</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10794.784200000007</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20476.455299999991</v>
+      </c>
+      <c r="E12" s="8">
+        <v>23500.702300000008</v>
+      </c>
+      <c r="F12" s="9">
+        <v>108520.00520000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>2017</v>
       </c>
-      <c r="B13" s="13">
-        <v>60752.09739999997</v>
-      </c>
-      <c r="C13" s="13">
-        <v>52465.428500000016</v>
-      </c>
-      <c r="D13" s="13">
-        <v>96473.162800000064</v>
-      </c>
-      <c r="E13" s="13">
-        <v>3218.4906999999944</v>
-      </c>
-      <c r="F13" s="14">
-        <v>212909.17940000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="B13" s="8">
+        <v>61041.209599999973</v>
+      </c>
+      <c r="C13" s="8">
+        <v>52224.50089999997</v>
+      </c>
+      <c r="D13" s="8">
+        <v>96714.09070000003</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2929.3779000000063</v>
+      </c>
+      <c r="F13" s="9">
+        <v>212909.17909999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>2018</v>
       </c>
-      <c r="B14" s="13">
-        <v>-19206.453699999984</v>
-      </c>
-      <c r="C14" s="13">
-        <v>101099.30930000004</v>
-      </c>
-      <c r="D14" s="13">
-        <v>5305.5279</v>
-      </c>
-      <c r="E14" s="13">
-        <v>-2183.1771000000022</v>
-      </c>
-      <c r="F14" s="14">
-        <v>85015.206400000054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="B14" s="8">
+        <v>-19206.453899999997</v>
+      </c>
+      <c r="C14" s="8">
+        <v>101099.30930000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5305.5280999999959</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-2183.1773000000067</v>
+      </c>
+      <c r="F14" s="9">
+        <v>85015.206200000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>2019</v>
       </c>
-      <c r="B15" s="13">
-        <v>24930.624200000013</v>
-      </c>
-      <c r="C15" s="13">
-        <v>33525.053100000005</v>
-      </c>
-      <c r="D15" s="13">
-        <v>44058.121499999994</v>
-      </c>
-      <c r="E15" s="13">
-        <v>90757.47619999999</v>
-      </c>
-      <c r="F15" s="14">
-        <v>193271.27500000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="B15" s="8">
+        <v>27224.683200000007</v>
+      </c>
+      <c r="C15" s="8">
+        <v>33207.084900000016</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44782.61759999999</v>
+      </c>
+      <c r="E15" s="8">
+        <v>91012.98809999993</v>
+      </c>
+      <c r="F15" s="9">
+        <v>196227.37379999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>2020</v>
       </c>
-      <c r="B16" s="13">
-        <v>15169.578499999992</v>
-      </c>
-      <c r="C16" s="13">
-        <v>39947.611000000019</v>
-      </c>
-      <c r="D16" s="13">
-        <v>-4873.3680999999979</v>
-      </c>
-      <c r="E16" s="13">
-        <v>28238.176699999985</v>
-      </c>
-      <c r="F16" s="14">
-        <v>78481.998099999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="B16" s="8">
+        <v>15424.325199999994</v>
+      </c>
+      <c r="C16" s="8">
+        <v>39988.812599999968</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-5575.9183999999977</v>
+      </c>
+      <c r="E16" s="8">
+        <v>29835.678500000005</v>
+      </c>
+      <c r="F16" s="9">
+        <v>79672.897899999967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>2021</v>
       </c>
-      <c r="B17" s="13">
-        <v>12346.787499999999</v>
-      </c>
-      <c r="C17" s="13">
-        <v>32248.122599999999</v>
-      </c>
-      <c r="D17" s="13">
-        <v>62139.206699999937</v>
-      </c>
-      <c r="E17" s="13">
-        <v>-21795.89209999999</v>
-      </c>
-      <c r="F17" s="14">
-        <v>84938.224699999933</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="8">
+        <v>18008.700499999999</v>
+      </c>
+      <c r="C17" s="8">
+        <v>29839.110699999979</v>
+      </c>
+      <c r="D17" s="8">
+        <v>58980.246499999994</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-22892.170400000039</v>
+      </c>
+      <c r="F17" s="9">
+        <v>83935.887299999944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44609.939599999998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>35404.635299999987</v>
+      </c>
+      <c r="D18" s="8">
+        <v>22852.609199999995</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-42249.314500000037</v>
+      </c>
+      <c r="F18" s="9">
+        <v>60617.869599999933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8">
+        <v>11055.878499999993</v>
+      </c>
+      <c r="C19" s="8">
+        <v>32989.727299999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>20900.576399999994</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-4983.5635000000075</v>
+      </c>
+      <c r="F19" s="9">
+        <v>59962.618699999977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13">
-        <v>59924.140200000009</v>
-      </c>
-      <c r="C18" s="13">
-        <v>47076.947800000016</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
-        <v>107001.08800000002</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="B20" s="8">
+        <v>20767.712600000003</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9">
+        <v>20767.712600000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/4/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/4/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -266,17 +266,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -589,7 +589,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,14 +598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -617,19 +617,19 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -940,11 +940,13 @@
       <c r="B20" s="8">
         <v>20767.712600000003</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8">
+        <v>15631.674000000008</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9">
-        <v>20767.712600000003</v>
+        <v>36399.386600000013</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,14 +1013,14 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
